--- a/paybyplate/paybyplate249.xlsx
+++ b/paybyplate/paybyplate249.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:K88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,7 +560,11 @@
           <t>PAY BY PLATE MA</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>PB44211</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>IN</t>
@@ -569,7 +573,11 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>78882837</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
@@ -628,7 +636,11 @@
           <t>PAY BY PLATE MA</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PB44600</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>IN</t>
@@ -637,7 +649,11 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>78883779</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
@@ -698,7 +714,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PB55931</t>
+          <t>PB53871</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -706,31 +722,21 @@
           <t>IN</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>09/11/2022 00:08:38</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CHARLTON - WEST </t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>78894708</t>
+          <t>78877715</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>10/24/2022</t>
-        </is>
-      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -739,23 +745,41 @@
           <t>PAY BY PLATE MA</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>PB55931</t>
+        </is>
+      </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>IN</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>09/11/2022 00:08:38</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHARLTON - WEST </t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>78894708</t>
+        </is>
+      </c>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>6.40</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>10/24/2022</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -766,7 +790,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>P896982</t>
+          <t>PB55931</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -774,31 +798,21 @@
           <t>IN</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>06/21/2022 00:59:46</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CHARLTON - WEST </t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>78895414</t>
+          <t>78894708</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>10/24/2022</t>
-        </is>
-      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -807,23 +821,41 @@
           <t>PAY BY PLATE MA</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>P896982</t>
+        </is>
+      </c>
       <c r="C11" t="inlineStr">
         <is>
           <t>IN</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>06/21/2022 00:59:46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHARLTON - WEST </t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>78895414</t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>5.30</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>10/24/2022</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -834,7 +866,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>P895095</t>
+          <t>P896982</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -842,31 +874,21 @@
           <t>IN</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>06/20/2022 02:01:48</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">WESTON - EAST </t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>78895308</t>
+          <t>78895414</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
-      <c r="I12" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>10/24/2022</t>
-        </is>
-      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -877,7 +899,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>P972252</t>
+          <t>P895095</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -887,18 +909,18 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>06/18/2022 01:53:53</t>
+          <t>06/20/2022 02:01:48</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve">HOPKINTON - EAST </t>
+          <t xml:space="preserve">WESTON - EAST </t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>78891433</t>
+          <t>78895308</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
@@ -920,7 +942,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PA97520</t>
+          <t>P895095</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -928,31 +950,21 @@
           <t>IN</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>09/12/2022 19:43:47</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CHARLTON - WEST </t>
-        </is>
-      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>78891391</t>
+          <t>78895308</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>10/24/2022</t>
-        </is>
-      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -963,7 +975,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PA97520</t>
+          <t>P972252</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -973,23 +985,23 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>09/13/2022 00:03:02</t>
+          <t>06/18/2022 01:53:53</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve">CHARLTON - EAST </t>
+          <t xml:space="preserve">HOPKINTON - EAST </t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>78891391</t>
+          <t>78891433</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1006,7 +1018,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PA97520</t>
+          <t>P972252</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1014,31 +1026,21 @@
           <t>IN</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>09/13/202214:41:51</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">HOPKINTON - WEST </t>
-        </is>
-      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>78891391</t>
+          <t>78891433</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>10/24/2022</t>
-        </is>
-      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -1059,12 +1061,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>09/14/2022 12:33:22</t>
+          <t>09/12/2022 19:43:47</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUDLOW-WEST </t>
+          <t xml:space="preserve">CHARLTON - WEST </t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -1075,7 +1077,7 @@
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>6.6</v>
+        <v>4.2</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1102,12 +1104,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>09/14/2022 14:25:26</t>
+          <t>09/13/2022 00:03:02</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve">WESTON - EAST </t>
+          <t xml:space="preserve">CHARLTON - EAST </t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -1118,7 +1120,7 @@
       </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>11.65</v>
+        <v>2.25</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1145,12 +1147,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>09/15/2022 03:59:34</t>
+          <t>09/13/202214:41:51</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve">WESTON - EAST </t>
+          <t xml:space="preserve">HOPKINTON - WEST </t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -1161,7 +1163,7 @@
       </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>7.3</v>
+        <v>1.95</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1188,12 +1190,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>09/15/2022 07:07:29</t>
+          <t>09/14/2022 12:33:22</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve">TOBIN BRIDGE CENTRAL - NORTH </t>
+          <t xml:space="preserve">LUDLOW-WEST </t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -1204,7 +1206,7 @@
       </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>4.05</v>
+        <v>6.6</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1231,12 +1233,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>09/15/2022 09:10:10</t>
+          <t>09/14/2022 14:25:26</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve">TED WILLIAMS TUNNEL - WEST </t>
+          <t xml:space="preserve">WESTON - EAST </t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -1247,7 +1249,7 @@
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
-        <v>4.7</v>
+        <v>11.65</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1274,12 +1276,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>09/15/2022 11:10:25</t>
+          <t>09/15/2022 03:59:34</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve">TED WILLIAMS TUNNEL - EAST </t>
+          <t xml:space="preserve">WESTON - EAST </t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1290,7 +1292,7 @@
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>4.7</v>
+        <v>7.3</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1317,12 +1319,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>09/20/2022 08:45:33</t>
+          <t>09/15/2022 07:07:29</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUDLOW - WEST </t>
+          <t xml:space="preserve">TOBIN BRIDGE CENTRAL - NORTH </t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -1333,7 +1335,7 @@
       </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>7.199999999999999</v>
+        <v>4.05</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1350,7 +1352,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PA97416</t>
+          <t>PA97520</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1360,23 +1362,23 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>09/15/2022 09:09:08</t>
+          <t>09/15/2022 09:10:10</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t xml:space="preserve">CHARLTON - WEST </t>
+          <t xml:space="preserve">TED WILLIAMS TUNNEL - WEST </t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>78892522</t>
+          <t>78891391</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1393,7 +1395,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>P896642</t>
+          <t>PA97520</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1403,23 +1405,23 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>09/16/2022 04:12:04</t>
+          <t>09/15/2022 11:10:25</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t xml:space="preserve">CHARITON - WEST </t>
+          <t xml:space="preserve">TED WILLIAMS TUNNEL - EAST </t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>78892958</t>
+          <t>78891391</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1436,7 +1438,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>PA98364</t>
+          <t>PA97520</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1446,23 +1448,23 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>09/15/2022 21:15:24</t>
+          <t>09/20/2022 08:45:33</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t xml:space="preserve">CHARLTON - WEST </t>
+          <t xml:space="preserve">LUDLOW - WEST </t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>78892046</t>
+          <t>78891391</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>4.8</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1479,7 +1481,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>P972350</t>
+          <t>PA97520</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1487,31 +1489,21 @@
           <t>IN</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>09/13/2022 23:59:09</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">HOPKINTON - EAST </t>
-        </is>
-      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>78892193</t>
+          <t>78891391</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>10/24/2022</t>
-        </is>
-      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
@@ -1520,23 +1512,41 @@
           <t>PAY BY PLATE MA</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>PA97416</t>
+        </is>
+      </c>
       <c r="C28" t="inlineStr">
         <is>
           <t>IN</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>09/15/2022 09:09:08</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHARLTON - WEST </t>
+        </is>
+      </c>
       <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>78892522</t>
+        </is>
+      </c>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>8.50</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>10/24/2022</t>
+        </is>
+      </c>
       <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
@@ -1547,7 +1557,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>PB45323</t>
+          <t>PA97416</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1555,31 +1565,21 @@
           <t>IN</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>06/23/2022 18:24:11</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">HOPKINTON - EAST </t>
-        </is>
-      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>78893097</t>
+          <t>78892522</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>10/24/2022</t>
-        </is>
-      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>PB45323</t>
+          <t>P896642</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1600,7 +1600,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>06/27/2022 11:50:13</t>
+          <t>09/16/2022 04:12:04</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1611,12 +1611,12 @@
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>78893097</t>
+          <t>78892958</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="n">
-        <v>1.6</v>
+        <v>4.8</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>PA98005</t>
+          <t>P896642</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1641,31 +1641,21 @@
           <t>IN</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>09/13/2022 16:45:35</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CHARLTON - WEST </t>
-        </is>
-      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>78888875</t>
+          <t>78892958</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
-      <c r="I31" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>10/24/2022</t>
-        </is>
-      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
@@ -1676,7 +1666,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>PA87143</t>
+          <t>PA98364</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1686,23 +1676,23 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>09/11/2022 20:50:14</t>
+          <t>09/15/2022 21:15:24</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t xml:space="preserve">WESTON - EAST </t>
+          <t xml:space="preserve">CHARLTON - WEST </t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>78899747</t>
+          <t>78892046</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="n">
-        <v>3.7</v>
+        <v>4.8</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -1719,7 +1709,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>PA83892</t>
+          <t>PA98364</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1727,31 +1717,21 @@
           <t>IN</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>09/11/2022 14:32:52</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">HOPKINTON - EAST </t>
-        </is>
-      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>78899665</t>
+          <t>78892046</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
-      <c r="I33" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>10/24/2022</t>
-        </is>
-      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
@@ -1762,7 +1742,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>P897756</t>
+          <t>P972350</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1772,23 +1752,23 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>09/12/2022 08:58:01</t>
+          <t>09/13/2022 23:59:09</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t xml:space="preserve">CHARITON - WEST </t>
+          <t xml:space="preserve">HOPKINTON - EAST </t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>78897202</t>
+          <t>78892193</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="n">
-        <v>2.7</v>
+        <v>4.8</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -1805,7 +1785,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>PB46318</t>
+          <t>P972350</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1813,31 +1793,21 @@
           <t>IN</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>09/13/2022 16:15:24</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CHARLTON - WEST </t>
-        </is>
-      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>78898279</t>
+          <t>78892193</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
-      <c r="I35" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>10/24/2022</t>
-        </is>
-      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
@@ -1848,7 +1818,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>P895044</t>
+          <t>PB45323</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1858,18 +1828,18 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>09/14/2022 04:02:13</t>
+          <t>06/23/2022 18:24:11</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t xml:space="preserve">FRAMINGHAM - EAST </t>
+          <t xml:space="preserve">HOPKINTON - EAST </t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>78898058</t>
+          <t>78893097</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
@@ -1891,7 +1861,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>P895044</t>
+          <t>PB45323</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1901,23 +1871,23 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>09/16/2022 01:17:00</t>
+          <t>06/27/2022 11:50:13</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t xml:space="preserve">CHARLTON - WEST </t>
+          <t xml:space="preserve">CHARITON - WEST </t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>78898058</t>
+          <t>78893097</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="n">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -1934,7 +1904,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>PB56155</t>
+          <t>PB45323</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1942,31 +1912,21 @@
           <t>IN</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>09/11/2022 19:07:19</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">HOPKINTON - EAST </t>
-        </is>
-      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>78874758</t>
+          <t>78893097</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
-      <c r="I38" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>10/24/2022</t>
-        </is>
-      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
@@ -1977,7 +1937,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>3240592</t>
+          <t>PA98005</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1987,23 +1947,23 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>09/12/2022 12:40:20</t>
+          <t>09/13/2022 16:45:35</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t xml:space="preserve">CHARLTON - EAST </t>
+          <t xml:space="preserve">CHARLTON - WEST </t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>78877155</t>
+          <t>78888875</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -2020,7 +1980,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>3240592</t>
+          <t>PA98005</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2028,31 +1988,21 @@
           <t>IN</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>09/12/2022 13:51:16</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">HOPKINTON - EAST </t>
-        </is>
-      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>78877155</t>
+          <t>78888875</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
-      <c r="I40" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>10/24/2022</t>
-        </is>
-      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
@@ -2063,7 +2013,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>PA83776</t>
+          <t>PA87143</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2073,23 +2023,23 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>09/12/2022 14:30:50</t>
+          <t>09/11/2022 20:50:14</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t xml:space="preserve">HOPKINTON - EAST </t>
+          <t xml:space="preserve">WESTON - EAST </t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>78896137</t>
+          <t>78899747</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="n">
-        <v>4.8</v>
+        <v>3.7</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -2104,7 +2054,11 @@
           <t>PAY BY PLATE MA</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>PA87143</t>
+        </is>
+      </c>
       <c r="C42" t="inlineStr">
         <is>
           <t>IN</t>
@@ -2113,11 +2067,15 @@
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>78899747</t>
+        </is>
+      </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
@@ -2131,7 +2089,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>P894458</t>
+          <t>PA83892</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2141,23 +2099,23 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>06/22/2022 02:06:43</t>
+          <t>09/11/2022 14:32:52</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t xml:space="preserve">CHARLTON - WEST </t>
+          <t xml:space="preserve">HOPKINTON - EAST </t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>78895876</t>
+          <t>78899665</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="n">
-        <v>1.6</v>
+        <v>4.5</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -2172,7 +2130,11 @@
           <t>PAY BY PLATE MA</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>PA83892</t>
+        </is>
+      </c>
       <c r="C44" t="inlineStr">
         <is>
           <t>IN</t>
@@ -2181,11 +2143,15 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>78899665</t>
+        </is>
+      </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -2199,7 +2165,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>PA98128</t>
+          <t>P897756</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2209,23 +2175,23 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>06/22/2022 22:56:52</t>
+          <t>09/12/2022 08:58:01</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t xml:space="preserve">FRAMINGHAM - EAST </t>
+          <t xml:space="preserve">CHARITON - WEST </t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>78896631</t>
+          <t>78897202</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="n">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -2240,7 +2206,11 @@
           <t>PAY BY PLATE MA</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>P897756</t>
+        </is>
+      </c>
       <c r="C46" t="inlineStr">
         <is>
           <t>IN</t>
@@ -2249,11 +2219,15 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>78897202</t>
+        </is>
+      </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
@@ -2267,7 +2241,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>P973235</t>
+          <t>PB46318</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2277,23 +2251,23 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>06/20/2022 23:21:32</t>
+          <t>09/13/2022 16:15:24</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t xml:space="preserve">HOPKINTON - EAST </t>
+          <t xml:space="preserve">CHARLTON - WEST </t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>78896562</t>
+          <t>78898279</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="n">
-        <v>1.6</v>
+        <v>4.8</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -2310,7 +2284,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>P895359</t>
+          <t>PB46318</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2318,31 +2292,21 @@
           <t>IN</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>09/16/2022 11:17:08</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CHARLTON - WEST </t>
-        </is>
-      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>78896358</t>
+          <t>78898279</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
-      <c r="I48" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>10/24/2022</t>
-        </is>
-      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
@@ -2353,7 +2317,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>PB53070</t>
+          <t>P895044</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2363,23 +2327,23 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>09/11/2022 02:06:26</t>
+          <t>09/14/2022 04:02:13</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t xml:space="preserve">CHARITON - WEST </t>
+          <t xml:space="preserve">FRAMINGHAM - EAST </t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>78897576</t>
+          <t>78898058</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -2396,7 +2360,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>PA85789</t>
+          <t>P895044</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2406,23 +2370,23 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>06/19/2022 03:33:51</t>
+          <t>09/16/2022 01:17:00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t xml:space="preserve">HOPKINTON - WEST </t>
+          <t xml:space="preserve">CHARLTON - WEST </t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>78886225</t>
+          <t>78898058</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="n">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -2437,7 +2401,11 @@
           <t>PAY BY PLATE MA</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>P895044</t>
+        </is>
+      </c>
       <c r="C51" t="inlineStr">
         <is>
           <t>IN</t>
@@ -2446,11 +2414,15 @@
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>78898058</t>
+        </is>
+      </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
@@ -2464,7 +2436,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>PA85854</t>
+          <t>PB56155</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2474,23 +2446,23 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>06/19/2022 10:43:14</t>
+          <t>09/11/2022 19:07:19</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t xml:space="preserve">CHARLTON - WEST </t>
+          <t xml:space="preserve">HOPKINTON - EAST </t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>78887125</t>
+          <t>78874758</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="n">
-        <v>1.6</v>
+        <v>4.8</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -2507,7 +2479,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>PA83723</t>
+          <t>PB56155</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2515,31 +2487,21 @@
           <t>IN</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>06/20/2022 03:48:04</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CHARITON - WEST </t>
-        </is>
-      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>78887045</t>
+          <t>78874758</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
-      <c r="I53" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>10/24/2022</t>
-        </is>
-      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
@@ -2550,7 +2512,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>PB55328</t>
+          <t>3240592</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2560,23 +2522,23 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>09/11/2022 22:55:07</t>
+          <t>09/12/2022 12:40:20</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t xml:space="preserve">TED WILLIAMS TUNNEL - EAST </t>
+          <t xml:space="preserve">CHARLTON - EAST </t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>78887362</t>
+          <t>78877155</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="n">
-        <v>5.3</v>
+        <v>0.9</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -2593,7 +2555,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>PA97186</t>
+          <t>3240592</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2603,23 +2565,23 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>09/14/2022 12:07:43</t>
+          <t>09/12/2022 13:51:16</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t xml:space="preserve">WESTON - EAST </t>
+          <t xml:space="preserve">HOPKINTON - EAST </t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>78888550</t>
+          <t>78877155</t>
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="n">
-        <v>10.85</v>
+        <v>1.4</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -2636,7 +2598,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>PA97186</t>
+          <t>3240592</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2644,31 +2606,21 @@
           <t>IN</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>09/14/2022 15:29:59</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CHARLTON - WEST </t>
-        </is>
-      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>78888550</t>
+          <t>78877155</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
-      <c r="I56" t="n">
-        <v>7.399999999999999</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>10/24/2022</t>
-        </is>
-      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
@@ -2679,7 +2631,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>PA85622</t>
+          <t>PA83776</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2689,23 +2641,23 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>06/18/2022 12:29:33</t>
+          <t>09/12/2022 14:30:50</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t xml:space="preserve">SOUTHBOROUGH - WEST </t>
+          <t xml:space="preserve">HOPKINTON - EAST </t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>78888540</t>
+          <t>78896137</t>
         </is>
       </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="n">
-        <v>1.6</v>
+        <v>4.8</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -2722,7 +2674,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>PA96039</t>
+          <t>PA83776</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2730,31 +2682,21 @@
           <t>IN</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>09/12/2022 21:09:24</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CHARLTON - WEST </t>
-        </is>
-      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>78894968</t>
+          <t>78896137</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
-      <c r="I58" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>10/24/2022</t>
-        </is>
-      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
@@ -2765,7 +2707,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>P897089</t>
+          <t>P894458</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2775,7 +2717,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>09/13/2022 13:32:32</t>
+          <t>06/22/2022 02:06:43</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2786,12 +2728,12 @@
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>78894953</t>
+          <t>78895876</t>
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="n">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -2808,7 +2750,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>P897737</t>
+          <t>P894458</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2816,31 +2758,21 @@
           <t>IN</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>09/11/2022 07:32:30</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CHARLTON - WEST </t>
-        </is>
-      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>78894911</t>
+          <t>78895876</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
-      <c r="I60" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>10/24/2022</t>
-        </is>
-      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
@@ -2851,7 +2783,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>PA87274</t>
+          <t>PA98128</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2861,30 +2793,1061 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>09/12/2022 02:26:29</t>
+          <t>06/22/2022 22:56:52</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t xml:space="preserve">CHARITON - WEST </t>
+          <t xml:space="preserve">FRAMINGHAM - EAST </t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>78893830</t>
+          <t>78896631</t>
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>10/24/2022</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>PAY BY PLATE MA</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>PA98128</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>78896631</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>PAY BY PLATE MA</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>P973235</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>06/20/2022 23:21:32</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HOPKINTON - EAST </t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>78896562</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>10/24/2022</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>PAY BY PLATE MA</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>P973235</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>78896562</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>PAY BY PLATE MA</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>P895359</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>09/16/2022 11:17:08</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHARLTON - WEST </t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>78896358</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>10/24/2022</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>PAY BY PLATE MA</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>P895359</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>78896358</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>PAY BY PLATE MA</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>PB53070</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>09/11/2022 02:06:26</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHARITON - WEST </t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>78897576</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>10/24/2022</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>PAY BY PLATE MA</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>PB53070</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>78897576</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>PAY BY PLATE MA</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>PA85789</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>06/19/2022 03:33:51</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HOPKINTON - WEST </t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>78886225</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>10/24/2022</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>PAY BY PLATE MA</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>PA85789</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>78886225</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>PAY BY PLATE MA</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>PA85854</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>06/19/2022 10:43:14</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHARLTON - WEST </t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>78887125</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>10/24/2022</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>PAY BY PLATE MA</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>PA85854</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>78887125</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>PAY BY PLATE MA</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>PA83723</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>06/20/2022 03:48:04</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHARITON - WEST </t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>78887045</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>10/24/2022</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>PAY BY PLATE MA</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>PA83723</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>78887045</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>PAY BY PLATE MA</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>PB55328</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>09/11/2022 22:55:07</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TED WILLIAMS TUNNEL - EAST </t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>78887362</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>10/24/2022</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>PAY BY PLATE MA</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>PB55328</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>78887362</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>PAY BY PLATE MA</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>PA97186</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>09/14/2022 12:07:43</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">WESTON - EAST </t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>78888550</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>10.85</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>10/24/2022</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>PAY BY PLATE MA</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>PA97186</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>09/14/2022 15:29:59</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHARLTON - WEST </t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>78888550</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>7.399999999999999</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>10/24/2022</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>PAY BY PLATE MA</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>PA97186</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>78888550</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>PAY BY PLATE MA</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>PA85622</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>06/18/2022 12:29:33</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SOUTHBOROUGH - WEST </t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>78888540</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>10/24/2022</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>PAY BY PLATE MA</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>PA85622</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>78888540</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>PAY BY PLATE MA</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>PA96039</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>09/12/2022 21:09:24</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHARLTON - WEST </t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>78894968</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>10/24/2022</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>PAY BY PLATE MA</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>PA96039</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>78894968</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>PAY BY PLATE MA</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>P897089</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>09/13/2022 13:32:32</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHARLTON - WEST </t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>78894953</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>10/24/2022</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>PAY BY PLATE MA</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>P897089</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>78894953</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>PAY BY PLATE MA</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>P897737</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>09/11/2022 07:32:30</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHARLTON - WEST </t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>78894911</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>10/24/2022</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>PAY BY PLATE MA</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>P897737</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>78894911</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>PAY BY PLATE MA</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>PA87274</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>09/12/2022 02:26:29</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHARITON - WEST </t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>78893830</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
         <v>2.35</v>
       </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>10/24/2022</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>10/24/2022</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
